--- a/data/20260226PoC用注文明細.xlsx
+++ b/data/20260226PoC用注文明細.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inies\Monolu\pj_konpo_optimization\notebooks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ishidaitsuki/Downloads/MonoLu/PJごと/DH/pj_konpo_poc_app/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B31C765-3D07-4E94-B5D5-C68BCDBCC07D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D2C9FC7-721D-7E41-9BDA-3E0562703559}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$1</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
@@ -941,7 +944,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1308,20 +1311,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L282"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A256" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A282"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="9.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="57.54296875" customWidth="1"/>
-    <col min="5" max="5" width="23.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.08984375" customWidth="1"/>
+    <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="57.5" customWidth="1"/>
+    <col min="5" max="5" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1359,7 +1362,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
         <v>205</v>
       </c>
@@ -1397,7 +1400,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>205</v>
       </c>
@@ -1435,7 +1438,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>205</v>
       </c>
@@ -1473,7 +1476,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>206</v>
       </c>
@@ -1511,7 +1514,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12">
       <c r="A6" t="s">
         <v>206</v>
       </c>
@@ -1549,7 +1552,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12">
       <c r="A7" t="s">
         <v>206</v>
       </c>
@@ -1587,7 +1590,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12">
       <c r="A8" t="s">
         <v>206</v>
       </c>
@@ -1625,7 +1628,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12">
       <c r="A9" t="s">
         <v>207</v>
       </c>
@@ -1663,7 +1666,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12">
       <c r="A10" t="s">
         <v>207</v>
       </c>
@@ -1701,7 +1704,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12">
       <c r="A11" t="s">
         <v>208</v>
       </c>
@@ -1739,7 +1742,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12">
       <c r="A12" t="s">
         <v>208</v>
       </c>
@@ -1777,7 +1780,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12">
       <c r="A13" t="s">
         <v>208</v>
       </c>
@@ -1815,7 +1818,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12">
       <c r="A14" t="s">
         <v>208</v>
       </c>
@@ -1853,7 +1856,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12">
       <c r="A15" t="s">
         <v>209</v>
       </c>
@@ -1891,7 +1894,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12">
       <c r="A16" t="s">
         <v>209</v>
       </c>
@@ -1929,7 +1932,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12">
       <c r="A17" t="s">
         <v>209</v>
       </c>
@@ -1967,7 +1970,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12">
       <c r="A18" t="s">
         <v>209</v>
       </c>
@@ -2005,7 +2008,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12">
       <c r="A19" t="s">
         <v>210</v>
       </c>
@@ -2043,7 +2046,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12">
       <c r="A20" t="s">
         <v>210</v>
       </c>
@@ -2081,7 +2084,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12">
       <c r="A21" t="s">
         <v>210</v>
       </c>
@@ -2119,7 +2122,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12">
       <c r="A22" t="s">
         <v>211</v>
       </c>
@@ -2157,7 +2160,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12">
       <c r="A23" t="s">
         <v>211</v>
       </c>
@@ -2195,7 +2198,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12">
       <c r="A24" t="s">
         <v>212</v>
       </c>
@@ -2233,7 +2236,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12">
       <c r="A25" t="s">
         <v>212</v>
       </c>
@@ -2271,7 +2274,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12">
       <c r="A26" t="s">
         <v>212</v>
       </c>
@@ -2309,7 +2312,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12">
       <c r="A27" t="s">
         <v>212</v>
       </c>
@@ -2347,7 +2350,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12">
       <c r="A28" t="s">
         <v>213</v>
       </c>
@@ -2385,7 +2388,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12">
       <c r="A29" t="s">
         <v>214</v>
       </c>
@@ -2423,7 +2426,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12">
       <c r="A30" t="s">
         <v>214</v>
       </c>
@@ -2461,7 +2464,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12">
       <c r="A31" t="s">
         <v>214</v>
       </c>
@@ -2499,7 +2502,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12">
       <c r="A32" t="s">
         <v>214</v>
       </c>
@@ -2537,7 +2540,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12">
       <c r="A33" t="s">
         <v>215</v>
       </c>
@@ -2575,7 +2578,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12">
       <c r="A34" t="s">
         <v>215</v>
       </c>
@@ -2613,7 +2616,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12">
       <c r="A35" t="s">
         <v>215</v>
       </c>
@@ -2651,7 +2654,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12">
       <c r="A36" t="s">
         <v>216</v>
       </c>
@@ -2689,7 +2692,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12">
       <c r="A37" t="s">
         <v>217</v>
       </c>
@@ -2727,7 +2730,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12">
       <c r="A38" t="s">
         <v>218</v>
       </c>
@@ -2765,7 +2768,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12">
       <c r="A39" t="s">
         <v>219</v>
       </c>
@@ -2803,7 +2806,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12">
       <c r="A40" t="s">
         <v>219</v>
       </c>
@@ -2841,7 +2844,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:12">
       <c r="A41" t="s">
         <v>219</v>
       </c>
@@ -2879,7 +2882,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12">
       <c r="A42" t="s">
         <v>220</v>
       </c>
@@ -2917,7 +2920,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12">
       <c r="A43" t="s">
         <v>220</v>
       </c>
@@ -2955,7 +2958,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:12">
       <c r="A44" t="s">
         <v>221</v>
       </c>
@@ -2993,7 +2996,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:12">
       <c r="A45" t="s">
         <v>221</v>
       </c>
@@ -3031,7 +3034,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:12">
       <c r="A46" t="s">
         <v>221</v>
       </c>
@@ -3069,7 +3072,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:12">
       <c r="A47" t="s">
         <v>222</v>
       </c>
@@ -3107,7 +3110,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:12">
       <c r="A48" t="s">
         <v>222</v>
       </c>
@@ -3145,7 +3148,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:12">
       <c r="A49" t="s">
         <v>222</v>
       </c>
@@ -3183,7 +3186,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:12">
       <c r="A50" t="s">
         <v>223</v>
       </c>
@@ -3221,7 +3224,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:12">
       <c r="A51" t="s">
         <v>223</v>
       </c>
@@ -3259,7 +3262,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:12">
       <c r="A52" t="s">
         <v>223</v>
       </c>
@@ -3297,7 +3300,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:12">
       <c r="A53" t="s">
         <v>224</v>
       </c>
@@ -3335,7 +3338,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:12">
       <c r="A54" t="s">
         <v>224</v>
       </c>
@@ -3373,7 +3376,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:12">
       <c r="A55" t="s">
         <v>224</v>
       </c>
@@ -3411,7 +3414,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:12">
       <c r="A56" t="s">
         <v>224</v>
       </c>
@@ -3449,7 +3452,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:12">
       <c r="A57" t="s">
         <v>225</v>
       </c>
@@ -3487,7 +3490,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:12">
       <c r="A58" t="s">
         <v>225</v>
       </c>
@@ -3525,7 +3528,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:12">
       <c r="A59" t="s">
         <v>225</v>
       </c>
@@ -3563,7 +3566,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:12">
       <c r="A60" t="s">
         <v>226</v>
       </c>
@@ -3601,7 +3604,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:12">
       <c r="A61" t="s">
         <v>226</v>
       </c>
@@ -3639,7 +3642,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:12">
       <c r="A62" t="s">
         <v>226</v>
       </c>
@@ -3677,7 +3680,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:12">
       <c r="A63" t="s">
         <v>227</v>
       </c>
@@ -3715,7 +3718,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:12">
       <c r="A64" t="s">
         <v>227</v>
       </c>
@@ -3753,7 +3756,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:12">
       <c r="A65" t="s">
         <v>227</v>
       </c>
@@ -3791,7 +3794,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:12">
       <c r="A66" t="s">
         <v>227</v>
       </c>
@@ -3829,7 +3832,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:12">
       <c r="A67" t="s">
         <v>227</v>
       </c>
@@ -3867,7 +3870,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:12">
       <c r="A68" t="s">
         <v>228</v>
       </c>
@@ -3905,7 +3908,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:12">
       <c r="A69" t="s">
         <v>228</v>
       </c>
@@ -3943,7 +3946,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:12">
       <c r="A70" t="s">
         <v>229</v>
       </c>
@@ -3981,7 +3984,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:12">
       <c r="A71" t="s">
         <v>229</v>
       </c>
@@ -4019,7 +4022,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:12">
       <c r="A72" t="s">
         <v>229</v>
       </c>
@@ -4057,7 +4060,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:12">
       <c r="A73" t="s">
         <v>229</v>
       </c>
@@ -4095,7 +4098,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:12">
       <c r="A74" t="s">
         <v>230</v>
       </c>
@@ -4133,7 +4136,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:12">
       <c r="A75" t="s">
         <v>230</v>
       </c>
@@ -4171,7 +4174,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:12">
       <c r="A76" t="s">
         <v>230</v>
       </c>
@@ -4209,7 +4212,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:12">
       <c r="A77" t="s">
         <v>230</v>
       </c>
@@ -4247,7 +4250,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:12">
       <c r="A78" t="s">
         <v>230</v>
       </c>
@@ -4285,7 +4288,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:12">
       <c r="A79" t="s">
         <v>231</v>
       </c>
@@ -4323,7 +4326,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:12">
       <c r="A80" t="s">
         <v>231</v>
       </c>
@@ -4361,7 +4364,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:12">
       <c r="A81" t="s">
         <v>231</v>
       </c>
@@ -4399,7 +4402,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:12">
       <c r="A82" t="s">
         <v>231</v>
       </c>
@@ -4437,7 +4440,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:12">
       <c r="A83" t="s">
         <v>231</v>
       </c>
@@ -4475,7 +4478,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:12">
       <c r="A84" t="s">
         <v>232</v>
       </c>
@@ -4513,7 +4516,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:12">
       <c r="A85" t="s">
         <v>232</v>
       </c>
@@ -4551,7 +4554,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:12">
       <c r="A86" t="s">
         <v>232</v>
       </c>
@@ -4589,7 +4592,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:12">
       <c r="A87" t="s">
         <v>233</v>
       </c>
@@ -4627,7 +4630,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:12">
       <c r="A88" t="s">
         <v>233</v>
       </c>
@@ -4665,7 +4668,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:12">
       <c r="A89" t="s">
         <v>233</v>
       </c>
@@ -4703,7 +4706,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:12">
       <c r="A90" t="s">
         <v>234</v>
       </c>
@@ -4741,7 +4744,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:12">
       <c r="A91" t="s">
         <v>234</v>
       </c>
@@ -4779,7 +4782,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:12">
       <c r="A92" t="s">
         <v>234</v>
       </c>
@@ -4817,7 +4820,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:12">
       <c r="A93" t="s">
         <v>235</v>
       </c>
@@ -4855,7 +4858,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:12">
       <c r="A94" t="s">
         <v>235</v>
       </c>
@@ -4893,7 +4896,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:12">
       <c r="A95" t="s">
         <v>235</v>
       </c>
@@ -4931,7 +4934,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:12">
       <c r="A96" t="s">
         <v>236</v>
       </c>
@@ -4969,7 +4972,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:12">
       <c r="A97" t="s">
         <v>236</v>
       </c>
@@ -5007,7 +5010,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:12">
       <c r="A98" t="s">
         <v>236</v>
       </c>
@@ -5045,7 +5048,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:12">
       <c r="A99" t="s">
         <v>236</v>
       </c>
@@ -5083,7 +5086,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:12">
       <c r="A100" t="s">
         <v>237</v>
       </c>
@@ -5115,7 +5118,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:12">
       <c r="A101" t="s">
         <v>237</v>
       </c>
@@ -5147,7 +5150,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:12">
       <c r="A102" t="s">
         <v>237</v>
       </c>
@@ -5179,7 +5182,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:12">
       <c r="A103" t="s">
         <v>237</v>
       </c>
@@ -5211,7 +5214,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:12">
       <c r="A104" t="s">
         <v>237</v>
       </c>
@@ -5243,7 +5246,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:12">
       <c r="A105" t="s">
         <v>237</v>
       </c>
@@ -5275,7 +5278,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:12">
       <c r="A106" t="s">
         <v>238</v>
       </c>
@@ -5307,7 +5310,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:12">
       <c r="A107" t="s">
         <v>238</v>
       </c>
@@ -5339,7 +5342,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:12">
       <c r="A108" t="s">
         <v>238</v>
       </c>
@@ -5371,7 +5374,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:12">
       <c r="A109" t="s">
         <v>238</v>
       </c>
@@ -5403,7 +5406,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:12">
       <c r="A110" t="s">
         <v>238</v>
       </c>
@@ -5435,7 +5438,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:12">
       <c r="A111" t="s">
         <v>238</v>
       </c>
@@ -5467,7 +5470,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:12">
       <c r="A112" t="s">
         <v>238</v>
       </c>
@@ -5499,7 +5502,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:12">
       <c r="A113" t="s">
         <v>238</v>
       </c>
@@ -5531,7 +5534,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:12">
       <c r="A114" t="s">
         <v>239</v>
       </c>
@@ -5563,7 +5566,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:12">
       <c r="A115" t="s">
         <v>239</v>
       </c>
@@ -5595,7 +5598,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:12">
       <c r="A116" t="s">
         <v>239</v>
       </c>
@@ -5627,7 +5630,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:12">
       <c r="A117" t="s">
         <v>239</v>
       </c>
@@ -5659,7 +5662,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:12">
       <c r="A118" t="s">
         <v>239</v>
       </c>
@@ -5691,7 +5694,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:12">
       <c r="A119" t="s">
         <v>239</v>
       </c>
@@ -5723,7 +5726,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:12">
       <c r="A120" t="s">
         <v>239</v>
       </c>
@@ -5755,7 +5758,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:12">
       <c r="A121" t="s">
         <v>239</v>
       </c>
@@ -5787,7 +5790,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:12">
       <c r="A122" t="s">
         <v>240</v>
       </c>
@@ -5819,7 +5822,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:12">
       <c r="A123" t="s">
         <v>240</v>
       </c>
@@ -5851,7 +5854,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:12">
       <c r="A124" t="s">
         <v>240</v>
       </c>
@@ -5883,7 +5886,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:12">
       <c r="A125" t="s">
         <v>240</v>
       </c>
@@ -5915,7 +5918,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:12">
       <c r="A126" t="s">
         <v>241</v>
       </c>
@@ -5947,7 +5950,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:12">
       <c r="A127" t="s">
         <v>241</v>
       </c>
@@ -5979,7 +5982,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:12">
       <c r="A128" t="s">
         <v>241</v>
       </c>
@@ -6011,7 +6014,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:12">
       <c r="A129" t="s">
         <v>241</v>
       </c>
@@ -6043,7 +6046,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:12">
       <c r="A130" t="s">
         <v>241</v>
       </c>
@@ -6075,7 +6078,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:12">
       <c r="A131" t="s">
         <v>241</v>
       </c>
@@ -6107,7 +6110,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:12">
       <c r="A132" t="s">
         <v>241</v>
       </c>
@@ -6139,7 +6142,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:12">
       <c r="A133" t="s">
         <v>241</v>
       </c>
@@ -6171,7 +6174,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:12">
       <c r="A134" t="s">
         <v>242</v>
       </c>
@@ -6203,7 +6206,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:12">
       <c r="A135" t="s">
         <v>242</v>
       </c>
@@ -6235,7 +6238,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:12">
       <c r="A136" t="s">
         <v>242</v>
       </c>
@@ -6267,7 +6270,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:12">
       <c r="A137" t="s">
         <v>242</v>
       </c>
@@ -6299,7 +6302,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:12">
       <c r="A138" t="s">
         <v>242</v>
       </c>
@@ -6331,7 +6334,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:12">
       <c r="A139" t="s">
         <v>242</v>
       </c>
@@ -6363,7 +6366,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:12">
       <c r="A140" t="s">
         <v>242</v>
       </c>
@@ -6395,7 +6398,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:12">
       <c r="A141" t="s">
         <v>242</v>
       </c>
@@ -6427,7 +6430,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:12">
       <c r="A142" t="s">
         <v>243</v>
       </c>
@@ -6459,7 +6462,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:12">
       <c r="A143" t="s">
         <v>243</v>
       </c>
@@ -6491,7 +6494,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:12">
       <c r="A144" t="s">
         <v>243</v>
       </c>
@@ -6523,7 +6526,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:12">
       <c r="A145" t="s">
         <v>244</v>
       </c>
@@ -6555,7 +6558,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:12">
       <c r="A146" t="s">
         <v>244</v>
       </c>
@@ -6587,7 +6590,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:12">
       <c r="A147" t="s">
         <v>244</v>
       </c>
@@ -6619,7 +6622,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:12">
       <c r="A148" t="s">
         <v>245</v>
       </c>
@@ -6651,7 +6654,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:12">
       <c r="A149" t="s">
         <v>245</v>
       </c>
@@ -6683,7 +6686,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:12">
       <c r="A150" t="s">
         <v>245</v>
       </c>
@@ -6715,7 +6718,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:12">
       <c r="A151" t="s">
         <v>245</v>
       </c>
@@ -6747,7 +6750,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:12">
       <c r="A152" t="s">
         <v>245</v>
       </c>
@@ -6779,7 +6782,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:12">
       <c r="A153" t="s">
         <v>246</v>
       </c>
@@ -6817,7 +6820,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:12">
       <c r="A154" t="s">
         <v>247</v>
       </c>
@@ -6855,7 +6858,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:12">
       <c r="A155" t="s">
         <v>248</v>
       </c>
@@ -6893,7 +6896,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:12">
       <c r="A156" t="s">
         <v>249</v>
       </c>
@@ -6931,7 +6934,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:12">
       <c r="A157" t="s">
         <v>249</v>
       </c>
@@ -6969,7 +6972,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:12">
       <c r="A158" t="s">
         <v>250</v>
       </c>
@@ -7007,7 +7010,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:12">
       <c r="A159" t="s">
         <v>251</v>
       </c>
@@ -7045,7 +7048,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:12">
       <c r="A160" t="s">
         <v>251</v>
       </c>
@@ -7083,7 +7086,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:12">
       <c r="A161" t="s">
         <v>252</v>
       </c>
@@ -7121,7 +7124,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:12">
       <c r="A162" t="s">
         <v>252</v>
       </c>
@@ -7159,7 +7162,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:12">
       <c r="A163" t="s">
         <v>253</v>
       </c>
@@ -7197,7 +7200,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:12">
       <c r="A164" t="s">
         <v>253</v>
       </c>
@@ -7235,7 +7238,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:12">
       <c r="A165" t="s">
         <v>254</v>
       </c>
@@ -7273,7 +7276,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:12">
       <c r="A166" t="s">
         <v>254</v>
       </c>
@@ -7311,7 +7314,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:12">
       <c r="A167" t="s">
         <v>254</v>
       </c>
@@ -7349,7 +7352,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:12">
       <c r="A168" t="s">
         <v>255</v>
       </c>
@@ -7387,7 +7390,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:12">
       <c r="A169" t="s">
         <v>255</v>
       </c>
@@ -7425,7 +7428,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:12">
       <c r="A170" t="s">
         <v>256</v>
       </c>
@@ -7463,7 +7466,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:12">
       <c r="A171" t="s">
         <v>256</v>
       </c>
@@ -7501,7 +7504,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:12">
       <c r="A172" t="s">
         <v>256</v>
       </c>
@@ -7539,7 +7542,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:12">
       <c r="A173" t="s">
         <v>257</v>
       </c>
@@ -7577,7 +7580,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:12">
       <c r="A174" t="s">
         <v>257</v>
       </c>
@@ -7615,7 +7618,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:12">
       <c r="A175" t="s">
         <v>257</v>
       </c>
@@ -7653,7 +7656,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:12">
       <c r="A176" t="s">
         <v>257</v>
       </c>
@@ -7691,7 +7694,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:12">
       <c r="A177" t="s">
         <v>257</v>
       </c>
@@ -7729,7 +7732,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:12">
       <c r="A178" t="s">
         <v>258</v>
       </c>
@@ -7767,7 +7770,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:12">
       <c r="A179" t="s">
         <v>258</v>
       </c>
@@ -7805,7 +7808,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:12">
       <c r="A180" t="s">
         <v>259</v>
       </c>
@@ -7843,7 +7846,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:12">
       <c r="A181" t="s">
         <v>259</v>
       </c>
@@ -7881,7 +7884,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:12">
       <c r="A182" t="s">
         <v>259</v>
       </c>
@@ -7919,7 +7922,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:12">
       <c r="A183" t="s">
         <v>260</v>
       </c>
@@ -7957,7 +7960,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:12">
       <c r="A184" t="s">
         <v>261</v>
       </c>
@@ -7995,7 +7998,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:12">
       <c r="A185" t="s">
         <v>261</v>
       </c>
@@ -8033,7 +8036,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:12">
       <c r="A186" t="s">
         <v>261</v>
       </c>
@@ -8071,7 +8074,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:12">
       <c r="A187" t="s">
         <v>261</v>
       </c>
@@ -8109,7 +8112,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:12">
       <c r="A188" t="s">
         <v>262</v>
       </c>
@@ -8147,7 +8150,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:12">
       <c r="A189" t="s">
         <v>263</v>
       </c>
@@ -8185,7 +8188,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:12">
       <c r="A190" t="s">
         <v>263</v>
       </c>
@@ -8223,7 +8226,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:12">
       <c r="A191" t="s">
         <v>263</v>
       </c>
@@ -8261,7 +8264,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:12">
       <c r="A192" t="s">
         <v>263</v>
       </c>
@@ -8299,7 +8302,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:12">
       <c r="A193" t="s">
         <v>264</v>
       </c>
@@ -8337,7 +8340,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:12">
       <c r="A194" t="s">
         <v>265</v>
       </c>
@@ -8375,7 +8378,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:12">
       <c r="A195" t="s">
         <v>266</v>
       </c>
@@ -8413,7 +8416,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:12">
       <c r="A196" t="s">
         <v>266</v>
       </c>
@@ -8451,7 +8454,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:12">
       <c r="A197" t="s">
         <v>266</v>
       </c>
@@ -8489,7 +8492,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:12">
       <c r="A198" t="s">
         <v>266</v>
       </c>
@@ -8527,7 +8530,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:12">
       <c r="A199" t="s">
         <v>267</v>
       </c>
@@ -8565,7 +8568,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:12">
       <c r="A200" t="s">
         <v>267</v>
       </c>
@@ -8603,7 +8606,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:12">
       <c r="A201" t="s">
         <v>268</v>
       </c>
@@ -8641,7 +8644,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:12">
       <c r="A202" t="s">
         <v>268</v>
       </c>
@@ -8679,7 +8682,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:12">
       <c r="A203" t="s">
         <v>269</v>
       </c>
@@ -8717,7 +8720,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:12">
       <c r="A204" t="s">
         <v>269</v>
       </c>
@@ -8755,7 +8758,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:12">
       <c r="A205" t="s">
         <v>270</v>
       </c>
@@ -8793,7 +8796,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:12">
       <c r="A206" t="s">
         <v>270</v>
       </c>
@@ -8831,7 +8834,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:12">
       <c r="A207" t="s">
         <v>270</v>
       </c>
@@ -8869,7 +8872,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:12">
       <c r="A208" t="s">
         <v>271</v>
       </c>
@@ -8907,7 +8910,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:12">
       <c r="A209" t="s">
         <v>272</v>
       </c>
@@ -8945,7 +8948,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:12">
       <c r="A210" t="s">
         <v>272</v>
       </c>
@@ -8983,7 +8986,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:12">
       <c r="A211" t="s">
         <v>273</v>
       </c>
@@ -9021,7 +9024,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:12">
       <c r="A212" t="s">
         <v>273</v>
       </c>
@@ -9059,7 +9062,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:12">
       <c r="A213" t="s">
         <v>274</v>
       </c>
@@ -9097,7 +9100,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:12">
       <c r="A214" t="s">
         <v>275</v>
       </c>
@@ -9135,7 +9138,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:12">
       <c r="A215" t="s">
         <v>276</v>
       </c>
@@ -9173,7 +9176,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:12">
       <c r="A216" t="s">
         <v>276</v>
       </c>
@@ -9211,7 +9214,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:12">
       <c r="A217" t="s">
         <v>277</v>
       </c>
@@ -9249,7 +9252,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:12">
       <c r="A218" t="s">
         <v>277</v>
       </c>
@@ -9287,7 +9290,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:12">
       <c r="A219" t="s">
         <v>278</v>
       </c>
@@ -9325,7 +9328,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:12">
       <c r="A220" t="s">
         <v>278</v>
       </c>
@@ -9363,7 +9366,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:12">
       <c r="A221" t="s">
         <v>278</v>
       </c>
@@ -9401,7 +9404,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:12">
       <c r="A222" t="s">
         <v>278</v>
       </c>
@@ -9439,7 +9442,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:12">
       <c r="A223" t="s">
         <v>279</v>
       </c>
@@ -9477,7 +9480,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:12">
       <c r="A224" t="s">
         <v>279</v>
       </c>
@@ -9515,7 +9518,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="225" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:12">
       <c r="A225" t="s">
         <v>280</v>
       </c>
@@ -9553,7 +9556,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="226" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:12">
       <c r="A226" t="s">
         <v>280</v>
       </c>
@@ -9591,7 +9594,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="227" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:12">
       <c r="A227" t="s">
         <v>281</v>
       </c>
@@ -9629,7 +9632,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="228" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:12">
       <c r="A228" t="s">
         <v>281</v>
       </c>
@@ -9667,7 +9670,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="229" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:12">
       <c r="A229" t="s">
         <v>282</v>
       </c>
@@ -9705,7 +9708,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="230" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:12">
       <c r="A230" t="s">
         <v>282</v>
       </c>
@@ -9743,7 +9746,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="231" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:12">
       <c r="A231" t="s">
         <v>282</v>
       </c>
@@ -9781,7 +9784,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="232" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:12">
       <c r="A232" t="s">
         <v>283</v>
       </c>
@@ -9819,7 +9822,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="233" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:12">
       <c r="A233" t="s">
         <v>283</v>
       </c>
@@ -9857,7 +9860,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="234" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:12">
       <c r="A234" t="s">
         <v>284</v>
       </c>
@@ -9895,7 +9898,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="235" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:12">
       <c r="A235" t="s">
         <v>284</v>
       </c>
@@ -9933,7 +9936,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="236" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:12">
       <c r="A236" t="s">
         <v>285</v>
       </c>
@@ -9971,7 +9974,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="237" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:12">
       <c r="A237" t="s">
         <v>286</v>
       </c>
@@ -10009,7 +10012,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="238" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:12">
       <c r="A238" t="s">
         <v>286</v>
       </c>
@@ -10047,7 +10050,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="239" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:12">
       <c r="A239" t="s">
         <v>286</v>
       </c>
@@ -10085,7 +10088,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="240" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:12">
       <c r="A240" t="s">
         <v>287</v>
       </c>
@@ -10123,7 +10126,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="241" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:12">
       <c r="A241" t="s">
         <v>288</v>
       </c>
@@ -10161,7 +10164,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="242" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:12">
       <c r="A242" t="s">
         <v>288</v>
       </c>
@@ -10199,7 +10202,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="243" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:12">
       <c r="A243" t="s">
         <v>288</v>
       </c>
@@ -10237,7 +10240,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="244" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:12">
       <c r="A244" t="s">
         <v>289</v>
       </c>
@@ -10275,7 +10278,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="245" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:12">
       <c r="A245" t="s">
         <v>289</v>
       </c>
@@ -10313,7 +10316,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="246" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:12">
       <c r="A246" t="s">
         <v>290</v>
       </c>
@@ -10351,7 +10354,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="247" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:12">
       <c r="A247" t="s">
         <v>290</v>
       </c>
@@ -10389,7 +10392,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="248" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:12">
       <c r="A248" t="s">
         <v>291</v>
       </c>
@@ -10427,7 +10430,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="249" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:12">
       <c r="A249" t="s">
         <v>291</v>
       </c>
@@ -10465,7 +10468,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="250" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:12">
       <c r="A250" t="s">
         <v>291</v>
       </c>
@@ -10503,7 +10506,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="251" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:12">
       <c r="A251" t="s">
         <v>292</v>
       </c>
@@ -10541,7 +10544,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="252" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:12">
       <c r="A252" t="s">
         <v>292</v>
       </c>
@@ -10579,7 +10582,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="253" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:12">
       <c r="A253" t="s">
         <v>292</v>
       </c>
@@ -10617,7 +10620,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="254" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:12">
       <c r="A254" t="s">
         <v>293</v>
       </c>
@@ -10655,7 +10658,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="255" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:12">
       <c r="A255" t="s">
         <v>293</v>
       </c>
@@ -10693,7 +10696,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="256" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:12">
       <c r="A256" t="s">
         <v>294</v>
       </c>
@@ -10731,7 +10734,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="257" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:12">
       <c r="A257" t="s">
         <v>294</v>
       </c>
@@ -10769,7 +10772,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="258" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:12">
       <c r="A258" t="s">
         <v>294</v>
       </c>
@@ -10807,7 +10810,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="259" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:12">
       <c r="A259" t="s">
         <v>294</v>
       </c>
@@ -10845,7 +10848,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="260" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:12">
       <c r="A260" t="s">
         <v>295</v>
       </c>
@@ -10883,7 +10886,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="261" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:12">
       <c r="A261" t="s">
         <v>295</v>
       </c>
@@ -10921,7 +10924,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="262" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:12">
       <c r="A262" t="s">
         <v>295</v>
       </c>
@@ -10959,7 +10962,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="263" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:12">
       <c r="A263" t="s">
         <v>296</v>
       </c>
@@ -10997,7 +11000,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="264" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:12">
       <c r="A264" t="s">
         <v>297</v>
       </c>
@@ -11035,7 +11038,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="265" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:12">
       <c r="A265" t="s">
         <v>297</v>
       </c>
@@ -11073,7 +11076,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="266" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:12">
       <c r="A266" t="s">
         <v>297</v>
       </c>
@@ -11111,7 +11114,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="267" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:12">
       <c r="A267" t="s">
         <v>298</v>
       </c>
@@ -11149,7 +11152,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="268" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:12">
       <c r="A268" t="s">
         <v>299</v>
       </c>
@@ -11187,7 +11190,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="269" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:12">
       <c r="A269" t="s">
         <v>299</v>
       </c>
@@ -11225,7 +11228,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="270" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:12">
       <c r="A270" t="s">
         <v>299</v>
       </c>
@@ -11263,7 +11266,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="271" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:12">
       <c r="A271" t="s">
         <v>300</v>
       </c>
@@ -11301,7 +11304,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="272" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:12">
       <c r="A272" t="s">
         <v>300</v>
       </c>
@@ -11339,7 +11342,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="273" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:12">
       <c r="A273" t="s">
         <v>300</v>
       </c>
@@ -11377,7 +11380,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="274" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:12">
       <c r="A274" t="s">
         <v>301</v>
       </c>
@@ -11415,7 +11418,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="275" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:12">
       <c r="A275" t="s">
         <v>301</v>
       </c>
@@ -11453,7 +11456,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="276" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:12">
       <c r="A276" t="s">
         <v>301</v>
       </c>
@@ -11491,7 +11494,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="277" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:12">
       <c r="A277" t="s">
         <v>302</v>
       </c>
@@ -11529,7 +11532,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="278" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:12">
       <c r="A278" t="s">
         <v>302</v>
       </c>
@@ -11567,7 +11570,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="279" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:12">
       <c r="A279" t="s">
         <v>303</v>
       </c>
@@ -11605,7 +11608,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="280" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:12">
       <c r="A280" t="s">
         <v>303</v>
       </c>
@@ -11643,7 +11646,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="281" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:12">
       <c r="A281" t="s">
         <v>304</v>
       </c>
@@ -11681,7 +11684,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="282" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:12">
       <c r="A282" t="s">
         <v>304</v>
       </c>
@@ -11720,6 +11723,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:L1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
